--- a/menus.xlsx
+++ b/menus.xlsx
@@ -1319,8 +1319,8 @@
   </sheetPr>
   <dimension ref="B2:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1437,7 @@
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K14" t="s">
@@ -1454,7 +1454,7 @@
       <c r="G15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K15" t="s">

--- a/menus.xlsx
+++ b/menus.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>Page INFOS     (P)</t>
   </si>
@@ -411,12 +411,6 @@
     <t>m04_CalibBalances[]</t>
   </si>
   <si>
-    <t>info.  Balances(F)</t>
-  </si>
-  <si>
-    <t>m04_0F_InfoBal()</t>
-  </si>
-  <si>
     <t>Poids  Balances(F)</t>
   </si>
   <si>
@@ -607,6 +601,9 @@
   </si>
   <si>
     <t>generer fonction d'affichage des données dynamiques</t>
+  </si>
+  <si>
+    <t>Masse de Tare (g)</t>
   </si>
 </sst>
 </file>
@@ -1007,9 +1004,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -1024,8 +1021,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="10782301"/>
-          <a:ext cx="2466975" cy="266699"/>
+          <a:off x="5391150" y="10239375"/>
+          <a:ext cx="2428875" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1319,8 +1316,8 @@
   </sheetPr>
   <dimension ref="B2:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,13 +1336,13 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1353,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1367,10 +1364,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,10 +1378,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1395,10 +1392,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T12">
         <v>12</v>
@@ -1409,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>18</v>
@@ -1418,13 +1415,13 @@
         <v>19</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1441,7 +1438,7 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1458,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1472,7 +1469,7 @@
         <v>24</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1497,7 +1494,7 @@
         <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1516,13 +1513,13 @@
         <v>28</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" t="s">
         <v>85</v>
-      </c>
-      <c r="P22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1530,16 +1527,16 @@
         <v>29</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="s">
         <v>85</v>
-      </c>
-      <c r="P23" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1550,10 +1547,10 @@
         <v>31</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1564,13 +1561,13 @@
         <v>33</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T25">
         <v>23</v>
@@ -1584,10 +1581,10 @@
         <v>35</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1598,18 +1595,18 @@
         <v>37</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K28" s="10"/>
     </row>
@@ -1618,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1625,7 @@
         <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1640,7 +1637,7 @@
         <v>41</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1670,7 +1667,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1679,49 +1676,49 @@
         <v>24</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L39" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L44" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1730,11 +1727,11 @@
         <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G51" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H51" t="s">
@@ -1762,160 +1759,157 @@
         <v>55</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G57" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L59" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="G78" t="s">
         <v>112</v>
-      </c>
-      <c r="G78" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
